--- a/lab-9/result.xlsx
+++ b/lab-9/result.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\CC++\Electronic-Computers-Science\lab-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845A203-7C20-4912-8AA9-EDA7BE661874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B62AF6-8108-4D3E-906A-847B7B865F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2299,15 +2310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2635,7 +2646,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
